--- a/df_portal_order_check/daily_xlsx/DFP_FreshFood_Order_01_04_2024.xlsx
+++ b/df_portal_order_check/daily_xlsx/DFP_FreshFood_Order_01_04_2024.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_fundamentals\daily_usage\daily_xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\P.Truong\Checking_Data\TPTS_Project\df_portal_order_check\daily_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7764"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="DFP_FreshFood_Order_01_04_2024" sheetId="1" r:id="rId1"/>
@@ -3871,9 +3871,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:515" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:515" x14ac:dyDescent="0.25">
       <c r="I1">
         <v>151</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>18301</v>
       </c>
     </row>
-    <row r="2" spans="1:515" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:515" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="3" spans="1:515" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:515" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:515" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:515" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:515" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:515" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:515" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:515" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:515" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:515" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:515" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:515" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:515" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:515" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:515" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:515" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:515" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:515" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:515" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:515" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:515" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:515" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:515" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:515" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:515" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:515" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:515" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:515" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -13236,7 +13236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -13262,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:424" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:424" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -14487,7 +14487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -14886,7 +14886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:286" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:286" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:286" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:286" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:286" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:286" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:286" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:286" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -15198,7 +15198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:286" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:286" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:286" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:286" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:286" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:286" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:286" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -15389,7 +15389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:286" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -15831,7 +15831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -15883,7 +15883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -16311,7 +16311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -16415,7 +16415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -16470,7 +16470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -16496,7 +16496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -16522,7 +16522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -16574,7 +16574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -16600,7 +16600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:346" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -16707,7 +16707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -16863,7 +16863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -16976,7 +16976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -17063,7 +17063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -17222,7 +17222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -17303,7 +17303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -17355,7 +17355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -17494,7 +17494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -17636,7 +17636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -17688,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -17714,7 +17714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -17766,7 +17766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -17792,7 +17792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -17844,7 +17844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:207" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -17974,7 +17974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -18000,7 +18000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -18156,7 +18156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -18182,7 +18182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -18263,7 +18263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -18292,7 +18292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -18370,7 +18370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:399" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -18448,7 +18448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -18500,7 +18500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -18552,7 +18552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -18604,7 +18604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -18656,7 +18656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -18708,7 +18708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -18734,7 +18734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -18760,7 +18760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -18786,7 +18786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -18812,7 +18812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -18838,7 +18838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -18916,7 +18916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -18942,7 +18942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -19072,7 +19072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -19098,7 +19098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -19150,7 +19150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -19182,7 +19182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:195" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -19272,7 +19272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:195" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -19298,7 +19298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:195" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:195" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -19353,7 +19353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:195" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -19379,7 +19379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:195" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -19405,7 +19405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:195" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -19431,7 +19431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:195" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -19457,7 +19457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:195" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:195" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:195" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -19535,7 +19535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:195" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:195" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -19587,7 +19587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:195" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:195" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:195" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -19665,7 +19665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -19691,7 +19691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -19743,7 +19743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -19769,7 +19769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -19795,7 +19795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -19821,7 +19821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -19873,7 +19873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -19899,7 +19899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -19925,7 +19925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -19951,7 +19951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -19977,7 +19977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -20081,7 +20081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -20107,7 +20107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -20133,7 +20133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -20211,7 +20211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -20237,7 +20237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -20263,7 +20263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -20315,7 +20315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -20341,7 +20341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -20367,7 +20367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -20497,7 +20497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -20523,7 +20523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -20549,7 +20549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -20575,7 +20575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -20627,7 +20627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -20679,7 +20679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -20783,7 +20783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -20809,7 +20809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -20835,7 +20835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -20861,7 +20861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -20887,7 +20887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -20913,7 +20913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -20965,7 +20965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -20991,7 +20991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -21017,7 +21017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -21049,7 +21049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -21081,7 +21081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -21110,7 +21110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -21136,7 +21136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -21162,7 +21162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -21188,7 +21188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -21214,7 +21214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -21240,7 +21240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -21266,7 +21266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -21292,7 +21292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -21318,7 +21318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -21344,7 +21344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:297" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:297" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -21411,7 +21411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="355" spans="1:297" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:297" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -21463,7 +21463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:297" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -21489,7 +21489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:297" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -21515,7 +21515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:297" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -21541,7 +21541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:297" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -21567,7 +21567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:297" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -21593,7 +21593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:297" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -21619,7 +21619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:297" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -21645,7 +21645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:297" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -21671,7 +21671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:297" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -21697,7 +21697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:297" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:297" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -21749,7 +21749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:297" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -21775,7 +21775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -21801,7 +21801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -21827,7 +21827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -21853,7 +21853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -21879,7 +21879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -21905,7 +21905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -21931,7 +21931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -21957,7 +21957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -21983,7 +21983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -22009,7 +22009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -22035,7 +22035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -22061,7 +22061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -22087,7 +22087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -22113,7 +22113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -22148,7 +22148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -22180,7 +22180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -22212,7 +22212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -22247,7 +22247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -22282,7 +22282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -22311,7 +22311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -22340,7 +22340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -22366,7 +22366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -22392,7 +22392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -22421,7 +22421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -22456,7 +22456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -22485,7 +22485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -22511,7 +22511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -22537,7 +22537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -22563,7 +22563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -22667,7 +22667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -22693,7 +22693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -22719,7 +22719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -22745,7 +22745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -22797,7 +22797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -22823,7 +22823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -22849,7 +22849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -22875,7 +22875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -22901,7 +22901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -22927,7 +22927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -22953,7 +22953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -22979,7 +22979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -23005,7 +23005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -23031,7 +23031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -23057,7 +23057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -23109,7 +23109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -23135,7 +23135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -23161,7 +23161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -23187,7 +23187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -23213,7 +23213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -23239,7 +23239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -23265,7 +23265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -23291,7 +23291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -23343,7 +23343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -23369,7 +23369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -23395,7 +23395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -23447,7 +23447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -23499,7 +23499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -23577,7 +23577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -23603,7 +23603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -23681,7 +23681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -23733,7 +23733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
